--- a/human_runs.xlsx
+++ b/human_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/samuel_dion_mail_mcgill_ca/Documents/McGill/Courses/MGSC-670 - Revenue Management/Markdown Strategy Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCE03DE-F40F-40E1-A197-09F1398B760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{8CCE03DE-F40F-40E1-A197-09F1398B760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{620A87A2-2713-44A0-B8E4-290E3B6649CC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2513" windowWidth="12000" windowHeight="8274" xr2:uid="{286CAC33-FF29-4C13-86B2-5D90CD8DBA4B}"/>
   </bookViews>
@@ -35,12 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Average</t>
   </si>
   <si>
     <t>http://www.randhawa.us/games/retailer/nyu.html</t>
+  </si>
+  <si>
+    <t>Standard Dev</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="9.05859375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1">
@@ -504,6 +510,15 @@
         <v>6.7999999999999991E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <f>_xlfn.STDEV.S(B1:B10)</f>
+        <v>2.2504320572824348E-2</v>
+      </c>
+    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>1</v>

--- a/human_runs.xlsx
+++ b/human_runs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/samuel_dion_mail_mcgill_ca/Documents/McGill/Courses/MGSC-670 - Revenue Management/Markdown Strategy Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\markdown_strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{8CCE03DE-F40F-40E1-A197-09F1398B760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{620A87A2-2713-44A0-B8E4-290E3B6649CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1CFCFE-4D1E-4E3B-84D8-EC35F7610CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2513" windowWidth="12000" windowHeight="8274" xr2:uid="{286CAC33-FF29-4C13-86B2-5D90CD8DBA4B}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="21954" windowHeight="11860" xr2:uid="{286CAC33-FF29-4C13-86B2-5D90CD8DBA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Average</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Standard Dev</t>
+  </si>
+  <si>
+    <t>CI (lower)</t>
+  </si>
+  <si>
+    <t>CI (upper)</t>
   </si>
 </sst>
 </file>
@@ -410,18 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3D472-FE2B-48D6-B7D5-F99853A6FDDC}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.05859375" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -429,7 +436,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -437,7 +444,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -445,7 +452,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -453,7 +460,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -461,7 +468,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -469,7 +476,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -477,7 +484,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -485,7 +492,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -493,7 +500,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -501,7 +508,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -510,7 +517,7 @@
         <v>6.7999999999999991E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -519,8 +526,26 @@
         <v>2.2504320572824348E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B11+1.96*B12/SQRT(10)</f>
+        <v>8.1948322400123175E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B11-1.96*B12/SQRT(10)</f>
+        <v>5.4051677599876807E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
